--- a/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t xml:space="preserve">Hypothese </t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">H1_09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">H1_07 </t>
@@ -103,11 +100,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,6 +128,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,16 +193,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -229,9 +242,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +573,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -581,7 +594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +748,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -756,10 +769,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +926,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -929,12 +942,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,8 +977,8 @@
       <c r="D2" s="0" t="n">
         <v>1.119551</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
+      <c r="E2" s="6" t="n">
+        <v>0.07269</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3.596154</v>
@@ -987,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.192308</v>
@@ -995,7 +1008,7 @@
       <c r="D4" s="0" t="n">
         <v>1.103265</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="7" t="n">
         <v>0.1043</v>
       </c>
     </row>
@@ -1004,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.557692</v>
@@ -1018,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4.076923</v>
@@ -1026,7 +1039,7 @@
       <c r="D6" s="0" t="n">
         <v>0.8596888</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.801</v>
       </c>
     </row>
@@ -1035,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4.038462</v>
@@ -1049,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4.230769</v>
@@ -1057,7 +1070,7 @@
       <c r="D8" s="0" t="n">
         <v>0.8991365</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="7" t="n">
         <v>0.04788</v>
       </c>
     </row>
@@ -1066,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.846154</v>
@@ -1078,7 +1091,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\lydia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\cooperativeNegotiation\crowdFlower\Study\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="dom09sub04" sheetId="1" r:id="rId1"/>
@@ -6032,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6219,7 +6219,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6402,7 +6402,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6585,7 +6585,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6770,7 +6770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>

--- a/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dom09sub04" sheetId="1" r:id="rId1"/>
@@ -6032,7 +6032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
@@ -6401,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>

--- a/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/final results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="dom09sub04" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t xml:space="preserve">Hypothese </t>
   </si>
@@ -110,6 +110,108 @@
   <si>
     <t>H4</t>
   </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>Size effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.518021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.28   </t>
+  </si>
+  <si>
+    <t>-5.339113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5235431 </t>
+  </si>
+  <si>
+    <t>-4.616609</t>
+  </si>
+  <si>
+    <t>-0.4526957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.113998 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5014688 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.344764 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5240972 </t>
+  </si>
+  <si>
+    <t>-4.050668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3972006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.959839 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.079434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4863522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4000214 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.00807 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3070098 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.137211 </t>
+  </si>
+  <si>
+    <t>-0.3201902</t>
+  </si>
+  <si>
+    <t>-3.799961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3878319 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.858851 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2917803 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.933092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.474687 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.693497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3554069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.856 </t>
+  </si>
+  <si>
+    <t>-0.5634939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.092718</t>
+  </si>
+  <si>
+    <t>-0.586272</t>
+  </si>
 </sst>
 </file>
 
@@ -142,10 +244,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -154,22 +282,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -343,7 +483,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom09sub04!$F$2:$F$5</c:f>
+              <c:f>dom09sub04!$J$5:$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -466,7 +606,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom09sub04!$F$2:$F$5</c:f>
+              <c:f>dom09sub04!$J$5:$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -863,7 +1003,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom07sub04!$F$2:$F$5</c:f>
+              <c:f>dom07sub04!$I$2:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -986,7 +1126,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom07sub04!$F$2:$F$5</c:f>
+              <c:f>dom07sub04!$I$2:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1383,7 +1523,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom07sub02!$F$2:$F$5</c:f>
+              <c:f>dom07sub02!$I$3:$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1506,7 +1646,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>dom07sub02!$F$2:$F$5</c:f>
+              <c:f>dom07sub02!$I$3:$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1969,7 +2109,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>SIMILARdom07sub04!$F$2:$F$5</c:f>
+              <c:f>SIMILARdom07sub04!$I$2:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2092,7 +2232,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>SIMILARdom07sub04!$F$2:$F$5</c:f>
+              <c:f>SIMILARdom07sub04!$I$2:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5655,16 +5795,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>735330</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6030,179 +6170,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="11.5"/>
     <col min="4" max="4" width="17.5"/>
-    <col min="5" max="1025" width="11.5"/>
+    <col min="5" max="6" width="11.5"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>3.961538</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1.119551</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>9.7450000000000002E-8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.211538</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.91472779999999998</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.1923080000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.1032649999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7.0790000000000001E-8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.82932669999999997</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.0769229999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.85968880000000003</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.9359999999999999E-6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2.211538</v>
-      </c>
-      <c r="D3">
-        <v>0.91472779999999998</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" t="s">
-        <v>24</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.6538460000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.1527400000000001</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="J7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2.1923080000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.1032649999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.0790000000000001E-8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.2307689999999996</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.89913650000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.4470000000000001E-7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4.3076920000000003</v>
-      </c>
-      <c r="D5">
-        <v>0.82932669999999997</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>4.0769229999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.85968880000000003</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.9359999999999999E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2.6538460000000001</v>
-      </c>
-      <c r="D7">
-        <v>1.1527400000000001</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>4.2307689999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.89913650000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.4470000000000001E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2.3076919999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1.163808</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6216,173 +6405,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1025" width="11.5"/>
+    <col min="1" max="5" width="11.5"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>3.5961539999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.99527540000000003</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>5.142E-8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2.1923080000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.79306949999999998</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.5576919999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1.2112780000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>3.7119999999999997E-5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3.8076919999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1.0485930000000001</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4.038462</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.79116540000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>4.7739999999999997E-7</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>2.6730770000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.96449019999999996</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3.8461539999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.97788520000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>3.2809999999999999E-5</v>
       </c>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2.5961539999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1.0711839999999999</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -6399,177 +6638,227 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1025" width="11.5"/>
+    <col min="1" max="5" width="11.5"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2.8333330000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1.154701</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>2.1640000000000001E-3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.1458330000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.77155779999999996</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.7083330000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.2540709999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.4790000000000001E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2.1458330000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.77155779999999996</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
-        <v>24</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.6458330000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.88701229999999998</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2.7083330000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.2540709999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.4790000000000001E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.4791669999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.16673</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.192E-4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3.6458330000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.88701229999999998</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.97486130000000004</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3.4791669999999999</v>
-      </c>
-      <c r="D6">
-        <v>1.16673</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.192E-4</v>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.7916669999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.94437490000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3.2049999999999999E-3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2.3333330000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.97486130000000004</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3.7916669999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.94437490000000002</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3.2049999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2.875</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1.103669</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -6582,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6593,169 +6882,219 @@
     <col min="1" max="2" width="10.71875"/>
     <col min="3" max="3" width="8.94140625"/>
     <col min="4" max="4" width="16.44140625"/>
-    <col min="5" max="1025" width="11.5"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.94140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>3.3888889999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1.0535950000000001</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="11">
         <v>6.2340000000000004E-7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1.962963</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.91037959999999996</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.2962959999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1.0394049999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="11">
         <v>1.7349999999999999E-4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3.2222219999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1.127138</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3.7962959999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.91897459999999997</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>2.562E-9</v>
       </c>
+      <c r="F6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1.888889</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.79305159999999997</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4.5555560000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.57187759999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <v>7.0479999999999999E-10</v>
       </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1.9444440000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.97934650000000001</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
